--- a/lesmdm开发预演/测试反馈/【模板】测试反馈记录_20151104LESxlsx.xlsx
+++ b/lesmdm开发预演/测试反馈/【模板】测试反馈记录_20151104LESxlsx.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="109">
   <si>
     <t>问题描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -414,11 +414,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>已经修复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和老系统的逻辑不一样。老系统提交成功后，会进入下一节审批。新系统一直提示异常。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘志龙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理完成。传参错误，已经修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>CP客户保存报错，不明显提示：关键字段允许为空，二老的LESMDM会提示：搜索项不能为空，可以具体到某个字段。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>已经修复</t>
+    <t>CP客户可以修改字段，新系统和老系统不一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015年11月9日10:29:19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015年11月9日14:26:49</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已经修复，新老系统现在已经一致</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1121,13 +1149,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:O57"/>
+  <dimension ref="A1:S57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J4" sqref="J4"/>
+      <selection pane="bottomRight" activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="27" customHeight="1"/>
@@ -1147,10 +1175,13 @@
     <col min="13" max="13" width="10.5" style="8" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="24.875" style="8" customWidth="1"/>
     <col min="15" max="15" width="12" style="8" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="5"/>
+    <col min="16" max="17" width="9" style="5"/>
+    <col min="18" max="18" width="23.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="27" customHeight="1">
+    <row r="1" spans="1:19" ht="27" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -1196,8 +1227,20 @@
       <c r="O1" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" s="30" customFormat="1" ht="68.25" customHeight="1">
+      <c r="P1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" s="30" customFormat="1" ht="68.25" customHeight="1">
       <c r="A2" s="40">
         <v>1</v>
       </c>
@@ -1231,12 +1274,30 @@
       <c r="K2" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="L2" s="28"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="28"/>
+      <c r="L2" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="29">
+        <v>42316</v>
+      </c>
+      <c r="N2" s="28" t="s">
+        <v>101</v>
+      </c>
       <c r="O2" s="28"/>
-    </row>
-    <row r="3" spans="1:15" s="14" customFormat="1" ht="76.5" customHeight="1">
+      <c r="P2" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q2" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="R2" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="S2" s="28" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" s="14" customFormat="1" ht="76.5" customHeight="1">
       <c r="A3" s="19">
         <v>2</v>
       </c>
@@ -1275,12 +1336,12 @@
       <c r="N3" s="13"/>
       <c r="O3" s="13"/>
     </row>
-    <row r="4" spans="1:15" s="14" customFormat="1" ht="48" customHeight="1">
+    <row r="4" spans="1:19" s="14" customFormat="1" ht="48" customHeight="1">
       <c r="A4" s="19">
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>87</v>
@@ -1304,7 +1365,7 @@
         <v>93</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K4" s="12" t="s">
         <v>94</v>
@@ -1314,26 +1375,46 @@
       <c r="N4" s="13"/>
       <c r="O4" s="13"/>
     </row>
-    <row r="5" spans="1:15" s="14" customFormat="1" ht="39" customHeight="1">
+    <row r="5" spans="1:19" s="14" customFormat="1" ht="48" customHeight="1">
       <c r="A5" s="19">
         <v>4</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
+      <c r="B5" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="11">
+        <v>42316</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>94</v>
+      </c>
       <c r="L5" s="13"/>
       <c r="M5" s="16"/>
       <c r="N5" s="13"/>
       <c r="O5" s="13"/>
     </row>
-    <row r="6" spans="1:15" s="14" customFormat="1" ht="80.25" customHeight="1">
+    <row r="6" spans="1:19" s="14" customFormat="1" ht="80.25" customHeight="1">
       <c r="A6" s="19">
         <v>5</v>
       </c>
@@ -1352,7 +1433,7 @@
       <c r="N6" s="13"/>
       <c r="O6" s="13"/>
     </row>
-    <row r="7" spans="1:15" s="14" customFormat="1" ht="39" customHeight="1">
+    <row r="7" spans="1:19" s="14" customFormat="1" ht="39" customHeight="1">
       <c r="A7" s="19">
         <v>6</v>
       </c>
@@ -1370,7 +1451,7 @@
       <c r="N7" s="13"/>
       <c r="O7" s="13"/>
     </row>
-    <row r="8" spans="1:15" s="14" customFormat="1" ht="39" customHeight="1">
+    <row r="8" spans="1:19" s="14" customFormat="1" ht="39" customHeight="1">
       <c r="A8" s="19">
         <v>7</v>
       </c>
@@ -1389,7 +1470,7 @@
       <c r="N8" s="13"/>
       <c r="O8" s="13"/>
     </row>
-    <row r="9" spans="1:15" s="14" customFormat="1" ht="39" customHeight="1">
+    <row r="9" spans="1:19" s="14" customFormat="1" ht="39" customHeight="1">
       <c r="A9" s="19">
         <v>8</v>
       </c>
@@ -1408,7 +1489,7 @@
       <c r="N9" s="13"/>
       <c r="O9" s="13"/>
     </row>
-    <row r="10" spans="1:15" s="14" customFormat="1" ht="39" customHeight="1">
+    <row r="10" spans="1:19" s="14" customFormat="1" ht="39" customHeight="1">
       <c r="A10" s="19">
         <v>9</v>
       </c>
@@ -1427,7 +1508,7 @@
       <c r="N10" s="13"/>
       <c r="O10" s="13"/>
     </row>
-    <row r="11" spans="1:15" s="14" customFormat="1" ht="39.75" customHeight="1">
+    <row r="11" spans="1:19" s="14" customFormat="1" ht="39.75" customHeight="1">
       <c r="A11" s="19">
         <v>10</v>
       </c>
@@ -1446,7 +1527,7 @@
       <c r="N11" s="13"/>
       <c r="O11" s="13"/>
     </row>
-    <row r="12" spans="1:15" s="14" customFormat="1" ht="56.25" customHeight="1">
+    <row r="12" spans="1:19" s="14" customFormat="1" ht="56.25" customHeight="1">
       <c r="A12" s="19">
         <v>11</v>
       </c>
@@ -1465,7 +1546,7 @@
       <c r="N12" s="13"/>
       <c r="O12" s="13"/>
     </row>
-    <row r="13" spans="1:15" s="14" customFormat="1" ht="65.25" customHeight="1">
+    <row r="13" spans="1:19" s="14" customFormat="1" ht="65.25" customHeight="1">
       <c r="A13" s="19">
         <v>12</v>
       </c>
@@ -1484,7 +1565,7 @@
       <c r="N13" s="13"/>
       <c r="O13" s="13"/>
     </row>
-    <row r="14" spans="1:15" s="14" customFormat="1" ht="59.25" customHeight="1">
+    <row r="14" spans="1:19" s="14" customFormat="1" ht="59.25" customHeight="1">
       <c r="A14" s="19">
         <v>13</v>
       </c>
@@ -1503,7 +1584,7 @@
       <c r="N14" s="13"/>
       <c r="O14" s="13"/>
     </row>
-    <row r="15" spans="1:15" s="14" customFormat="1" ht="39" customHeight="1">
+    <row r="15" spans="1:19" s="14" customFormat="1" ht="39" customHeight="1">
       <c r="A15" s="19">
         <v>14</v>
       </c>
@@ -1522,7 +1603,7 @@
       <c r="N15" s="13"/>
       <c r="O15" s="13"/>
     </row>
-    <row r="16" spans="1:15" s="14" customFormat="1" ht="50.25" customHeight="1">
+    <row r="16" spans="1:19" s="14" customFormat="1" ht="50.25" customHeight="1">
       <c r="A16" s="19">
         <v>15</v>
       </c>
